--- a/biology/Médecine/Albert_Jutras/Albert_Jutras.xlsx
+++ b/biology/Médecine/Albert_Jutras/Albert_Jutras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Jutras était un radiologiste québécois né le 2 octobre 1900 à Trois-Rivières et décédé le 16 février 1981. 
 Notamment spécialisé en radiologie, il dirige le service de radiologie de l'Hôtel-Dieu de Montréal à partir de 1938 et y travaille jusqu'en 1969. De 1951 à 1965, il est titulaire d'une chaire de radiologie à l'Université de Montréal.
@@ -513,7 +525,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1972 - Prix de l'œuvre scientifique (AMLFC)
 1976 - Membre de l'Ordre du Canada</t>
@@ -544,7 +558,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fonds Albert Jutras, fonds d'archives conservé par la Division de la gestion de documents et des archives de l'Université de Montréal.
  Portail du Québec   Portail du Canada   Portail de la médecine                   
